--- a/files/04.TSE/evolucao_eleitorado_local_2022.xlsx
+++ b/files/04.TSE/evolucao_eleitorado_local_2022.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\eleicoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\01.github\mapeamento_uberaba\files\04.TSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2A41B5-DE99-429C-8EDE-15546DF4574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620595C8-BC4A-4D3C-8271-3F334C0394FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$H$274</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -703,10 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,8 +719,8 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -747,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -799,7 +803,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -825,7 +829,7 @@
         <v>44799.478263888886</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -877,7 +881,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -903,7 +907,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -955,7 +959,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +1687,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>44298.605243055557</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>44298.812199074076</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2740,7 +2744,7 @@
         <v>44299.817499999997</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3160,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>44298.812199074076</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>44299.817499999997</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3306,7 +3310,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -3670,7 +3674,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4034,7 +4038,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4142,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>44799.478263888886</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4606,7 +4610,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -4762,7 +4766,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -4918,7 +4922,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -4970,7 +4974,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -5022,7 +5026,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -5074,7 +5078,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -5175,7 +5179,7 @@
         <v>44298.605243055557</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>44298.812199074076</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>44299.817499999997</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -5299,7 +5303,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5351,7 +5355,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -5481,7 +5485,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>44799.478263888886</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -5871,7 +5875,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -6001,7 +6005,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -6079,7 +6083,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -6183,7 +6187,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -6287,7 +6291,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -6443,7 +6447,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -6573,7 +6577,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -6625,7 +6629,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -6651,7 +6655,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -6729,7 +6733,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -6833,7 +6837,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -6963,7 +6967,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -7041,7 +7045,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -7119,7 +7123,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -7275,7 +7279,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -7327,7 +7331,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -7457,7 +7461,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -7483,7 +7487,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -7535,7 +7539,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -7613,7 +7617,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -7639,7 +7643,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -7691,7 +7695,7 @@
         <v>44690.706875000003</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -7743,7 +7747,7 @@
         <v>44755.74013888889</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -7766,7 +7770,7 @@
         <v>44298.605243055557</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -7789,7 +7793,7 @@
         <v>44298.812199074076</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -7813,6 +7817,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H274" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2020"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>